--- a/business-system/describleFile/系统表格设计.xlsx
+++ b/business-system/describleFile/系统表格设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="16395" windowHeight="6600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="账户信息表" sheetId="2" r:id="rId2"/>
+    <sheet name="账户信息流水表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>所有的表格都会继承该表的字段 Entity</t>
   </si>
@@ -100,6 +101,105 @@
   </si>
   <si>
     <t>是否删除</t>
+  </si>
+  <si>
+    <t>t_system_account</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>关联用户账户id</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>枚举类型</t>
+  </si>
+  <si>
+    <t>账户类型</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>bigdecimal</t>
+  </si>
+  <si>
+    <t>账户金额</t>
+  </si>
+  <si>
+    <t>withdrawal_amount</t>
+  </si>
+  <si>
+    <t>可提现金额</t>
+  </si>
+  <si>
+    <t>settlement_amount</t>
+  </si>
+  <si>
+    <t>结算金额</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>update_field</t>
+  </si>
+  <si>
+    <t>校验字段</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>account_state</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+  </si>
+  <si>
+    <t>新增创建时间</t>
+  </si>
+  <si>
+    <t>t_system_account_flow</t>
+  </si>
+  <si>
+    <t>tradeId</t>
+  </si>
+  <si>
+    <t>关联用户交易id</t>
+  </si>
+  <si>
+    <t>flowType</t>
+  </si>
+  <si>
+    <t>流水类型</t>
+  </si>
+  <si>
+    <t>流水金额</t>
+  </si>
+  <si>
+    <t>remainamount</t>
+  </si>
+  <si>
+    <t>账户余额</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -107,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,8 +221,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,37 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -176,90 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +380,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,31 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,92 +558,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -468,56 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,8 +621,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,138 +700,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1081,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1095,35 +1225,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1171,7 +1301,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
@@ -1242,14 +1372,233 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1259,14 +1608,192 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/business-system/describleFile/系统表格设计.xlsx
+++ b/business-system/describleFile/系统表格设计.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16395" windowHeight="6600" activeTab="2"/>
+    <workbookView windowWidth="18840" windowHeight="2070" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基类数据" sheetId="1" r:id="rId1"/>
     <sheet name="账户信息表" sheetId="2" r:id="rId2"/>
     <sheet name="账户信息流水表" sheetId="3" r:id="rId3"/>
+    <sheet name="活动基本信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="活动规则映射表" sheetId="5" r:id="rId5"/>
+    <sheet name="规则表" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:E9"/>
@@ -17,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>所有的表格都会继承该表的字段 Entity</t>
   </si>
@@ -166,9 +169,6 @@
     <t>账户状态</t>
   </si>
   <si>
-    <t>新增创建时间</t>
-  </si>
-  <si>
     <t>t_system_account_flow</t>
   </si>
   <si>
@@ -200,6 +200,57 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>t_system_activity继承基类信息</t>
+  </si>
+  <si>
+    <t>activity_type</t>
+  </si>
+  <si>
+    <t>活动类型</t>
+  </si>
+  <si>
+    <t>activity_name</t>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>limit_date_start</t>
+  </si>
+  <si>
+    <t>活动开始时间限制</t>
+  </si>
+  <si>
+    <t>limit_time_area</t>
+  </si>
+  <si>
+    <t>时间段限制,多时间段,分割</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>活动预算</t>
+  </si>
+  <si>
+    <t>activity_state</t>
+  </si>
+  <si>
+    <t>活动状态</t>
+  </si>
+  <si>
+    <t>activity_no</t>
+  </si>
+  <si>
+    <t>活动编号</t>
+  </si>
+  <si>
+    <t>limit_date_end</t>
+  </si>
+  <si>
+    <t>活动结束时间限制</t>
   </si>
 </sst>
 </file>
@@ -212,12 +263,95 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,81 +372,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -326,9 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +408,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,49 +438,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,37 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,73 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,13 +641,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,39 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -662,6 +700,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,137 +758,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,16 +907,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1285,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1225,137 +1298,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1372,10 +1445,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1447,7 +1520,7 @@
       <c r="C5" s="4">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1464,7 +1537,7 @@
       <c r="C6" s="4">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1481,7 +1554,7 @@
       <c r="C7" s="4">
         <v>20.2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1498,7 +1571,7 @@
       <c r="C8" s="4">
         <v>20.2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1515,7 +1588,7 @@
       <c r="C9" s="4">
         <v>20.2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1532,7 +1605,7 @@
       <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1549,7 +1622,7 @@
       <c r="C11" s="4">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1566,7 +1639,7 @@
       <c r="C12" s="4">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1583,16 +1656,11 @@
       <c r="C13" s="4">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1610,8 +1678,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1625,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1675,7 +1743,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1683,16 +1751,16 @@
       <c r="C5" s="4">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
@@ -1700,11 +1768,11 @@
       <c r="C6" s="4">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1717,16 +1785,16 @@
       <c r="C7" s="4">
         <v>20.2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -1734,11 +1802,11 @@
       <c r="C8" s="4">
         <v>20.2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1751,7 +1819,7 @@
       <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1760,17 +1828,17 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="4">
         <v>60</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1783,7 +1851,7 @@
       <c r="C11" s="4">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1798,4 +1866,596 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>